--- a/DMSNewVSale_2025-11-20_19-13.xlsx
+++ b/DMSNewVSale_2025-11-20_19-13.xlsx
@@ -513,6 +513,15 @@
   </si>
   <si>
     <t>7.1400</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -2975,7 +2984,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2985,11 +2994,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>15</v>
@@ -3001,14 +3010,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3025,7 +3034,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3041,7 +3050,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3058,7 +3067,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3074,7 +3083,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3084,11 +3093,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>15</v>
@@ -3100,14 +3109,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3117,11 +3126,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>15</v>
@@ -3133,14 +3142,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3150,11 +3159,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>15</v>
@@ -3166,14 +3175,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3183,7 +3192,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3206,24 +3215,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3232,31 +3241,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3265,14 +3274,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3282,14 +3291,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3298,14 +3307,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3315,14 +3324,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3338,7 +3347,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3348,14 +3357,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3371,7 +3380,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3381,14 +3390,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3397,14 +3406,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3414,14 +3423,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3430,28 +3439,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>15</v>
@@ -3463,14 +3472,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3480,14 +3489,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3503,7 +3512,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3517,10 +3526,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3529,14 +3538,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3546,11 +3555,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>15</v>
@@ -3569,7 +3578,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3583,10 +3592,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>190</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3595,7 +3604,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3612,14 +3621,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3649,10 +3658,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3661,14 +3670,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3678,14 +3687,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3701,7 +3710,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3711,11 +3720,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>15</v>
@@ -3727,14 +3736,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3744,11 +3753,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>15</v>
@@ -3760,14 +3769,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3777,14 +3786,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3793,14 +3802,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3810,14 +3819,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3826,14 +3835,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3843,51 +3852,84 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q82" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>232</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>233</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>145</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>234</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>37</v>
       </c>
     </row>
-    <row r="83" ht="25.5" customHeight="1">
-      <c r="N83" s="13">
-        <v>4905.9049999999997</v>
-      </c>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>232</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>233</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>234</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+    <row r="84" ht="26.25" customHeight="1">
+      <c r="N84" s="13">
+        <v>4926.9049999999997</v>
+      </c>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>235</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>236</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>237</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4276,10 +4318,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
